--- a/.xlsx/itd_time_percent.xlsx
+++ b/.xlsx/itd_time_percent.xlsx
@@ -400,7 +400,7 @@
         <v>45748.375</v>
       </c>
       <c r="B2">
-        <v>0.002473374167218373</v>
+        <v>0.002442867246074478</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -408,7 +408,7 @@
         <v>45748.37847222222</v>
       </c>
       <c r="B3">
-        <v>0.005887681728907863</v>
+        <v>0.005835533215638605</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -416,7 +416,7 @@
         <v>45748.38194444445</v>
       </c>
       <c r="B4">
-        <v>0.008047988777937142</v>
+        <v>0.007998186690374103</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -424,7 +424,7 @@
         <v>45748.38541666666</v>
       </c>
       <c r="B5">
-        <v>0.02231104226484801</v>
+        <v>0.03340359783954354</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -432,7 +432,7 @@
         <v>45748.38888888889</v>
       </c>
       <c r="B6">
-        <v>0.04685416101234236</v>
+        <v>0.05622215010458818</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -440,7 +440,7 @@
         <v>45748.39236111111</v>
       </c>
       <c r="B7">
-        <v>0.07062368223609575</v>
+        <v>0.08340706666790389</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -448,7 +448,7 @@
         <v>45748.39583333334</v>
       </c>
       <c r="B8">
-        <v>0.09201932856741239</v>
+        <v>0.1067683514957124</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -456,7 +456,7 @@
         <v>45748.39930555555</v>
       </c>
       <c r="B9">
-        <v>0.1115749229676646</v>
+        <v>0.1271910561248791</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -464,7 +464,7 @@
         <v>45748.40277777778</v>
       </c>
       <c r="B10">
-        <v>0.130989149565526</v>
+        <v>0.1466705417740544</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -472,7 +472,7 @@
         <v>45748.40625</v>
       </c>
       <c r="B11">
-        <v>0.151758632996236</v>
+        <v>0.1668559767520158</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -480,7 +480,7 @@
         <v>45748.40972222222</v>
       </c>
       <c r="B12">
-        <v>0.1711304978841814</v>
+        <v>0.1847939305294666</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -488,7 +488,7 @@
         <v>45748.41319444445</v>
       </c>
       <c r="B13">
-        <v>0.1896284981333877</v>
+        <v>0.2010211479138027</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -496,7 +496,7 @@
         <v>45748.41666666666</v>
       </c>
       <c r="B14">
-        <v>0.2063773892325392</v>
+        <v>0.2146250270889239</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -504,7 +504,7 @@
         <v>45748.42013888889</v>
       </c>
       <c r="B15">
-        <v>0.2243228032668786</v>
+        <v>0.2290702250054164</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -512,7 +512,7 @@
         <v>45748.42361111111</v>
       </c>
       <c r="B16">
-        <v>0.2415421300566264</v>
+        <v>0.2417759962531077</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -520,7 +520,7 @@
         <v>45748.42708333334</v>
       </c>
       <c r="B17">
-        <v>0.2588597572365151</v>
+        <v>0.2590505950393578</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -528,7 +528,7 @@
         <v>45748.43055555555</v>
       </c>
       <c r="B18">
-        <v>0.2761657717916334</v>
+        <v>0.2762947598692345</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -536,7 +536,7 @@
         <v>45748.43402777778</v>
       </c>
       <c r="B19">
-        <v>0.2931182699307872</v>
+        <v>0.293208631648506</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -544,7 +544,7 @@
         <v>45748.4375</v>
       </c>
       <c r="B20">
-        <v>0.3090547407146595</v>
+        <v>0.309047872037402</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -552,7 +552,7 @@
         <v>45748.44097222222</v>
       </c>
       <c r="B21">
-        <v>0.3252925517729283</v>
+        <v>0.3252475412834192</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -560,7 +560,7 @@
         <v>45748.44444444445</v>
       </c>
       <c r="B22">
-        <v>0.3415062840627323</v>
+        <v>0.34133124933926</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -568,7 +568,7 @@
         <v>45748.44791666666</v>
       </c>
       <c r="B23">
-        <v>0.3565859042476968</v>
+        <v>0.3563362736631027</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -576,7 +576,7 @@
         <v>45748.45138888889</v>
       </c>
       <c r="B24">
-        <v>0.3712321557591272</v>
+        <v>0.3708888924814036</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -584,7 +584,7 @@
         <v>45748.45486111111</v>
       </c>
       <c r="B25">
-        <v>0.3869840797631159</v>
+        <v>0.3864956242812882</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -592,7 +592,7 @@
         <v>45748.45833333334</v>
       </c>
       <c r="B26">
-        <v>0.4005007236683709</v>
+        <v>0.3999523828825674</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -600,7 +600,7 @@
         <v>45748.46180555555</v>
       </c>
       <c r="B27">
-        <v>0.4143258381559076</v>
+        <v>0.4137006834269802</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -608,7 +608,7 @@
         <v>45748.46527777778</v>
       </c>
       <c r="B28">
-        <v>0.4282144185859031</v>
+        <v>0.4275003700963058</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -616,7 +616,7 @@
         <v>45748.46875</v>
       </c>
       <c r="B29">
-        <v>0.4412868087197023</v>
+        <v>0.4404986497008098</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -624,7 +624,7 @@
         <v>45748.47222222222</v>
       </c>
       <c r="B30">
-        <v>0.4538184109614615</v>
+        <v>0.4530209563145088</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -632,7 +632,7 @@
         <v>45748.47569444445</v>
       </c>
       <c r="B31">
-        <v>0.4665902305824744</v>
+        <v>0.4657957917386238</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -640,7 +640,7 @@
         <v>45748.47916666666</v>
       </c>
       <c r="B32">
-        <v>0.4782072087082767</v>
+        <v>0.477542199591463</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -648,7 +648,7 @@
         <v>45748.54166666666</v>
       </c>
       <c r="B33">
-        <v>0.4907678529558497</v>
+        <v>0.4900559817507943</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -656,7 +656,7 @@
         <v>45748.54513888889</v>
       </c>
       <c r="B34">
-        <v>0.5091876021724011</v>
+        <v>0.5084572956470099</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -664,7 +664,7 @@
         <v>45748.54861111111</v>
       </c>
       <c r="B35">
-        <v>0.5292740966858014</v>
+        <v>0.5285789690830321</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -672,7 +672,7 @@
         <v>45748.55208333334</v>
       </c>
       <c r="B36">
-        <v>0.5504171423577172</v>
+        <v>0.5495968582271313</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -680,7 +680,7 @@
         <v>45748.55555555555</v>
       </c>
       <c r="B37">
-        <v>0.5714753854781691</v>
+        <v>0.5705389960644005</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -688,7 +688,7 @@
         <v>45748.55902777778</v>
       </c>
       <c r="B38">
-        <v>0.593533745668399</v>
+        <v>0.5925459404835024</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -696,7 +696,7 @@
         <v>45748.5625</v>
       </c>
       <c r="B39">
-        <v>0.615240225815725</v>
+        <v>0.6144343058350069</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -704,7 +704,7 @@
         <v>45748.56597222222</v>
       </c>
       <c r="B40">
-        <v>0.6387131348626421</v>
+        <v>0.637978573796393</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -712,7 +712,7 @@
         <v>45748.56944444445</v>
       </c>
       <c r="B41">
-        <v>0.6613525109568006</v>
+        <v>0.6605575263717044</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -720,7 +720,7 @@
         <v>45748.57291666666</v>
       </c>
       <c r="B42">
-        <v>0.686397451782489</v>
+        <v>0.685395999405859</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -728,7 +728,7 @@
         <v>45748.57638888889</v>
       </c>
       <c r="B43">
-        <v>0.7088162745900288</v>
+        <v>0.7077085705129555</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -736,7 +736,7 @@
         <v>45748.57986111111</v>
       </c>
       <c r="B44">
-        <v>0.7330521813139339</v>
+        <v>0.7318040407566023</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -744,7 +744,7 @@
         <v>45748.58333333334</v>
       </c>
       <c r="B45">
-        <v>0.7577337245022711</v>
+        <v>0.7565094622672197</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -752,7 +752,7 @@
         <v>45748.58680555555</v>
       </c>
       <c r="B46">
-        <v>0.7836697070370595</v>
+        <v>0.7824011175039448</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -760,7 +760,7 @@
         <v>45748.59027777778</v>
       </c>
       <c r="B47">
-        <v>0.8092148918155152</v>
+        <v>0.8081798074775718</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -768,7 +768,7 @@
         <v>45748.59375</v>
       </c>
       <c r="B48">
-        <v>0.8356852880364271</v>
+        <v>0.8352022184627984</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -776,7 +776,7 @@
         <v>45748.59722222222</v>
       </c>
       <c r="B49">
-        <v>0.8647021438699592</v>
+        <v>0.8644376968375299</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -784,7 +784,7 @@
         <v>45748.60069444445</v>
       </c>
       <c r="B50">
-        <v>0.8969563274736747</v>
+        <v>0.8966295266469879</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -792,7 +792,7 @@
         <v>45748.60416666666</v>
       </c>
       <c r="B51">
-        <v>0.9296298532112138</v>
+        <v>0.929397058050013</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -800,7 +800,7 @@
         <v>45748.60763888889</v>
       </c>
       <c r="B52">
-        <v>0.9328834959396693</v>
+        <v>0.9327060270792059</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -808,7 +808,7 @@
         <v>45748.61111111111</v>
       </c>
       <c r="B53">
-        <v>0.9361996938146802</v>
+        <v>0.9359738017493008</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -816,7 +816,7 @@
         <v>45748.61458333334</v>
       </c>
       <c r="B54">
-        <v>0.9869561941624608</v>
+        <v>0.9870665039040317</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -824,7 +824,7 @@
         <v>45748.61805555555</v>
       </c>
       <c r="B55">
-        <v>0.9935654744067212</v>
+        <v>0.993613482241237</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -832,7 +832,7 @@
         <v>45748.62152777778</v>
       </c>
       <c r="B56">
-        <v>0.9976793521487425</v>
+        <v>0.9976825101804898</v>
       </c>
     </row>
     <row r="57" spans="1:2">

--- a/.xlsx/itd_time_percent.xlsx
+++ b/.xlsx/itd_time_percent.xlsx
@@ -451,447 +451,447 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45776.375</v>
+        <v>45783.375</v>
       </c>
       <c r="B2" t="n">
-        <v>0.002123279081748873</v>
+        <v>0.002066991586672492</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45776.37847222222</v>
+        <v>45783.37847222222</v>
       </c>
       <c r="B3" t="n">
-        <v>0.005439096552764401</v>
+        <v>0.005306754522610258</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45776.38194444445</v>
+        <v>45783.38194444445</v>
       </c>
       <c r="B4" t="n">
-        <v>0.007676438494778001</v>
+        <v>0.007503348228124412</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45776.38541666666</v>
+        <v>45783.38541666666</v>
       </c>
       <c r="B5" t="n">
-        <v>0.05548688487191985</v>
+        <v>0.05415506422664566</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45776.38888888889</v>
+        <v>45783.38888888889</v>
       </c>
       <c r="B6" t="n">
-        <v>0.079592745337063</v>
+        <v>0.07830779018761022</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45776.39236111111</v>
+        <v>45783.39236111111</v>
       </c>
       <c r="B7" t="n">
-        <v>0.1085546149248857</v>
+        <v>0.1068152401525096</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45776.39583333334</v>
+        <v>45783.39583333334</v>
       </c>
       <c r="B8" t="n">
-        <v>0.1350275066574049</v>
+        <v>0.1330970099770371</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45776.39930555555</v>
+        <v>45783.39930555555</v>
       </c>
       <c r="B9" t="n">
-        <v>0.1583833563372345</v>
+        <v>0.1561225013899256</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45776.40277777778</v>
+        <v>45783.40277777778</v>
       </c>
       <c r="B10" t="n">
-        <v>0.1806832779875721</v>
+        <v>0.1782000461066376</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45776.40625</v>
+        <v>45783.40625</v>
       </c>
       <c r="B11" t="n">
-        <v>0.2029640077704826</v>
+        <v>0.2001334394176092</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45776.40972222222</v>
+        <v>45783.40972222222</v>
       </c>
       <c r="B12" t="n">
-        <v>0.2211831965531788</v>
+        <v>0.2182416316268655</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45776.41319444445</v>
+        <v>45783.41319444445</v>
       </c>
       <c r="B13" t="n">
-        <v>0.2365825978468112</v>
+        <v>0.2334780673375665</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45776.41666666666</v>
+        <v>45783.41666666666</v>
       </c>
       <c r="B14" t="n">
-        <v>0.2480834915026472</v>
+        <v>0.2449531431493842</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45776.42013888889</v>
+        <v>45783.42013888889</v>
       </c>
       <c r="B15" t="n">
-        <v>0.2639249133869641</v>
+        <v>0.2606088543579794</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45776.42361111111</v>
+        <v>45783.42361111111</v>
       </c>
       <c r="B16" t="n">
-        <v>0.276676709728537</v>
+        <v>0.2734605137641954</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45776.42708333334</v>
+        <v>45783.42708333334</v>
       </c>
       <c r="B17" t="n">
-        <v>0.2930796945214965</v>
+        <v>0.2897025789207949</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45776.43055555555</v>
+        <v>45783.43055555555</v>
       </c>
       <c r="B18" t="n">
-        <v>0.3090439945310034</v>
+        <v>0.3054377130235121</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45776.43402777778</v>
+        <v>45783.43402777778</v>
       </c>
       <c r="B19" t="n">
-        <v>0.3251193828710244</v>
+        <v>0.3212300103036891</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45776.4375</v>
+        <v>45783.4375</v>
       </c>
       <c r="B20" t="n">
-        <v>0.3403940460159853</v>
+        <v>0.336296221432862</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45776.44097222222</v>
+        <v>45783.44097222222</v>
       </c>
       <c r="B21" t="n">
-        <v>0.354721849018265</v>
+        <v>0.3504414318335003</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45776.44444444445</v>
+        <v>45783.44444444445</v>
       </c>
       <c r="B22" t="n">
-        <v>0.3696343415410807</v>
+        <v>0.3651372301279986</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45776.44791666666</v>
+        <v>45783.44791666666</v>
       </c>
       <c r="B23" t="n">
-        <v>0.3841594795731315</v>
+        <v>0.3795555275389423</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45776.45138888889</v>
+        <v>45783.45138888889</v>
       </c>
       <c r="B24" t="n">
-        <v>0.3976010937612219</v>
+        <v>0.3927515733686595</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45776.45486111111</v>
+        <v>45783.45486111111</v>
       </c>
       <c r="B25" t="n">
-        <v>0.4117319975672311</v>
+        <v>0.406934561225083</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45776.45833333334</v>
+        <v>45783.45833333334</v>
       </c>
       <c r="B26" t="n">
-        <v>0.4239127553927783</v>
+        <v>0.4189432913786117</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45776.46180555555</v>
+        <v>45783.46180555555</v>
       </c>
       <c r="B27" t="n">
-        <v>0.4364984302336006</v>
+        <v>0.4316417277838495</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45776.46527777778</v>
+        <v>45783.46527777778</v>
       </c>
       <c r="B28" t="n">
-        <v>0.4491764011238547</v>
+        <v>0.4441100778059634</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45776.46875</v>
+        <v>45783.46875</v>
       </c>
       <c r="B29" t="n">
-        <v>0.4608961671214847</v>
+        <v>0.4557970944726276</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45776.47222222222</v>
+        <v>45783.47222222222</v>
       </c>
       <c r="B30" t="n">
-        <v>0.4730383509577027</v>
+        <v>0.4679992604262468</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45776.47569444445</v>
+        <v>45783.47569444445</v>
       </c>
       <c r="B31" t="n">
-        <v>0.4868562533059182</v>
+        <v>0.4816729597447818</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45776.47916666666</v>
+        <v>45783.47916666666</v>
       </c>
       <c r="B32" t="n">
-        <v>0.4993711145028989</v>
+        <v>0.4939284202991893</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45776.54166666666</v>
+        <v>45783.54166666666</v>
       </c>
       <c r="B33" t="n">
-        <v>0.5138245774123309</v>
+        <v>0.5083296024767094</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45776.54513888889</v>
+        <v>45783.54513888889</v>
       </c>
       <c r="B34" t="n">
-        <v>0.535375837143801</v>
+        <v>0.5295523597688708</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45776.54861111111</v>
+        <v>45783.54861111111</v>
       </c>
       <c r="B35" t="n">
-        <v>0.5553210503702718</v>
+        <v>0.5494027795348617</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45776.55208333334</v>
+        <v>45783.55208333334</v>
       </c>
       <c r="B36" t="n">
-        <v>0.576382855956623</v>
+        <v>0.570931143115488</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45776.55555555555</v>
+        <v>45783.55555555555</v>
       </c>
       <c r="B37" t="n">
-        <v>0.5989428097669047</v>
+        <v>0.5937910649447129</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45776.55902777778</v>
+        <v>45783.55902777778</v>
       </c>
       <c r="B38" t="n">
-        <v>0.6207891503891969</v>
+        <v>0.6165627111480271</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45776.5625</v>
+        <v>45783.5625</v>
       </c>
       <c r="B39" t="n">
-        <v>0.6428575436794665</v>
+        <v>0.6387366960366822</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45776.56597222222</v>
+        <v>45783.56597222222</v>
       </c>
       <c r="B40" t="n">
-        <v>0.6651886536111633</v>
+        <v>0.661249716399368</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45776.56944444445</v>
+        <v>45783.56944444445</v>
       </c>
       <c r="B41" t="n">
-        <v>0.6868390912579384</v>
+        <v>0.6835906160647657</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45776.57291666666</v>
+        <v>45783.57291666666</v>
       </c>
       <c r="B42" t="n">
-        <v>0.7101278017879662</v>
+        <v>0.7069066462955342</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>45776.57638888889</v>
+        <v>45783.57638888889</v>
       </c>
       <c r="B43" t="n">
-        <v>0.7309254673232312</v>
+        <v>0.727680465047675</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>45776.57986111111</v>
+        <v>45783.57986111111</v>
       </c>
       <c r="B44" t="n">
-        <v>0.7535088777049309</v>
+        <v>0.7501943184942591</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>45776.58333333334</v>
+        <v>45783.58333333334</v>
       </c>
       <c r="B45" t="n">
-        <v>0.7749672242738384</v>
+        <v>0.7720723889065308</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>45776.58680555555</v>
+        <v>45783.58680555555</v>
       </c>
       <c r="B46" t="n">
-        <v>0.7987559832134944</v>
+        <v>0.7962162636041237</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>45776.59027777778</v>
+        <v>45783.59027777778</v>
       </c>
       <c r="B47" t="n">
-        <v>0.822620651278833</v>
+        <v>0.8202471330913723</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>45776.59375</v>
+        <v>45783.59375</v>
       </c>
       <c r="B48" t="n">
-        <v>0.8479344286012818</v>
+        <v>0.845518238615772</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>45776.59722222222</v>
+        <v>45783.59722222222</v>
       </c>
       <c r="B49" t="n">
-        <v>0.8753830844767004</v>
+        <v>0.8733924347640994</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>45776.60069444445</v>
+        <v>45783.60069444445</v>
       </c>
       <c r="B50" t="n">
-        <v>0.9050616204873334</v>
+        <v>0.9034102844921829</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>45776.60416666666</v>
+        <v>45783.60416666666</v>
       </c>
       <c r="B51" t="n">
-        <v>0.9354525398420901</v>
+        <v>0.934314192428088</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>45776.60763888889</v>
+        <v>45783.60763888889</v>
       </c>
       <c r="B52" t="n">
-        <v>0.9384818881292498</v>
+        <v>0.9372631851391418</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>45776.61111111111</v>
+        <v>45783.61111111111</v>
       </c>
       <c r="B53" t="n">
-        <v>0.9405154516661709</v>
+        <v>0.9395129106506767</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>45776.61458333334</v>
+        <v>45783.61458333334</v>
       </c>
       <c r="B54" t="n">
-        <v>0.9874744739852053</v>
+        <v>0.9877369763197861</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>45776.61805555555</v>
+        <v>45783.61805555555</v>
       </c>
       <c r="B55" t="n">
-        <v>0.9927205048196619</v>
+        <v>0.9928681908948165</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>45776.62152777778</v>
+        <v>45783.62152777778</v>
       </c>
       <c r="B56" t="n">
-        <v>0.9971448373378106</v>
+        <v>0.9972338193612796</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>45776.625</v>
+        <v>45783.625</v>
       </c>
       <c r="B57" t="n">
         <v>1</v>

--- a/.xlsx/itd_time_percent.xlsx
+++ b/.xlsx/itd_time_percent.xlsx
@@ -451,447 +451,447 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45783.375</v>
+        <v>45785.375</v>
       </c>
       <c r="B2" t="n">
-        <v>0.002066991586672492</v>
+        <v>0.002000890919897798</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45783.37847222222</v>
+        <v>45785.37847222222</v>
       </c>
       <c r="B3" t="n">
-        <v>0.005306754522610258</v>
+        <v>0.005146220767290485</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45783.38194444445</v>
+        <v>45785.38194444445</v>
       </c>
       <c r="B4" t="n">
-        <v>0.007503348228124412</v>
+        <v>0.007309114207060435</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45783.38541666666</v>
+        <v>45785.38541666666</v>
       </c>
       <c r="B5" t="n">
-        <v>0.05415506422664566</v>
+        <v>0.0528345396846035</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45783.38888888889</v>
+        <v>45785.38888888889</v>
       </c>
       <c r="B6" t="n">
-        <v>0.07830779018761022</v>
+        <v>0.07682729025092071</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45783.39236111111</v>
+        <v>45785.39236111111</v>
       </c>
       <c r="B7" t="n">
-        <v>0.1068152401525096</v>
+        <v>0.105587160459568</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45783.39583333334</v>
+        <v>45785.39583333334</v>
       </c>
       <c r="B8" t="n">
-        <v>0.1330970099770371</v>
+        <v>0.1320499672136994</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45783.39930555555</v>
+        <v>45785.39930555555</v>
       </c>
       <c r="B9" t="n">
-        <v>0.1561225013899256</v>
+        <v>0.1550265514964979</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45783.40277777778</v>
+        <v>45785.40277777778</v>
       </c>
       <c r="B10" t="n">
-        <v>0.1782000461066376</v>
+        <v>0.1769693118514202</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45783.40625</v>
+        <v>45785.40625</v>
       </c>
       <c r="B11" t="n">
-        <v>0.2001334394176092</v>
+        <v>0.1989684840795836</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45783.40972222222</v>
+        <v>45785.40972222222</v>
       </c>
       <c r="B12" t="n">
-        <v>0.2182416316268655</v>
+        <v>0.2171710197813316</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45783.41319444445</v>
+        <v>45785.41319444445</v>
       </c>
       <c r="B13" t="n">
-        <v>0.2334780673375665</v>
+        <v>0.232682418585247</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45783.41666666666</v>
+        <v>45785.41666666666</v>
       </c>
       <c r="B14" t="n">
-        <v>0.2449531431493842</v>
+        <v>0.2445766829652835</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45783.42013888889</v>
+        <v>45785.42013888889</v>
       </c>
       <c r="B15" t="n">
-        <v>0.2606088543579794</v>
+        <v>0.2602061288480008</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45783.42361111111</v>
+        <v>45785.42361111111</v>
       </c>
       <c r="B16" t="n">
-        <v>0.2734605137641954</v>
+        <v>0.2733402915799901</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45783.42708333334</v>
+        <v>45785.42708333334</v>
       </c>
       <c r="B17" t="n">
-        <v>0.2897025789207949</v>
+        <v>0.2899181318025941</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45783.43055555555</v>
+        <v>45785.43055555555</v>
       </c>
       <c r="B18" t="n">
-        <v>0.3054377130235121</v>
+        <v>0.3057263198382481</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45783.43402777778</v>
+        <v>45785.43402777778</v>
       </c>
       <c r="B19" t="n">
-        <v>0.3212300103036891</v>
+        <v>0.3217240613408628</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45783.4375</v>
+        <v>45785.4375</v>
       </c>
       <c r="B20" t="n">
-        <v>0.336296221432862</v>
+        <v>0.3367974953216982</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45783.44097222222</v>
+        <v>45785.44097222222</v>
       </c>
       <c r="B21" t="n">
-        <v>0.3504414318335003</v>
+        <v>0.3508931795126293</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45783.44444444445</v>
+        <v>45785.44444444445</v>
       </c>
       <c r="B22" t="n">
-        <v>0.3651372301279986</v>
+        <v>0.3655014648706726</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45783.44791666666</v>
+        <v>45785.44791666666</v>
       </c>
       <c r="B23" t="n">
-        <v>0.3795555275389423</v>
+        <v>0.3798428831291147</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45783.45138888889</v>
+        <v>45785.45138888889</v>
       </c>
       <c r="B24" t="n">
-        <v>0.3927515733686595</v>
+        <v>0.3931052458931673</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45783.45486111111</v>
+        <v>45785.45486111111</v>
       </c>
       <c r="B25" t="n">
-        <v>0.406934561225083</v>
+        <v>0.4072928831411613</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45783.45833333334</v>
+        <v>45785.45833333334</v>
       </c>
       <c r="B26" t="n">
-        <v>0.4189432913786117</v>
+        <v>0.4193618208296876</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45783.46180555555</v>
+        <v>45785.46180555555</v>
       </c>
       <c r="B27" t="n">
-        <v>0.4316417277838495</v>
+        <v>0.4319521053632188</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45783.46527777778</v>
+        <v>45785.46527777778</v>
       </c>
       <c r="B28" t="n">
-        <v>0.4441100778059634</v>
+        <v>0.4443217043052283</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45783.46875</v>
+        <v>45785.46875</v>
       </c>
       <c r="B29" t="n">
-        <v>0.4557970944726276</v>
+        <v>0.4559775489999275</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45783.47222222222</v>
+        <v>45785.47222222222</v>
       </c>
       <c r="B30" t="n">
-        <v>0.4679992604262468</v>
+        <v>0.4681817390733403</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45783.47569444445</v>
+        <v>45785.47569444445</v>
       </c>
       <c r="B31" t="n">
-        <v>0.4816729597447818</v>
+        <v>0.4817875831033827</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45783.47916666666</v>
+        <v>45785.47916666666</v>
       </c>
       <c r="B32" t="n">
-        <v>0.4939284202991893</v>
+        <v>0.4939852457220174</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45783.54166666666</v>
+        <v>45785.54166666666</v>
       </c>
       <c r="B33" t="n">
-        <v>0.5083296024767094</v>
+        <v>0.5082356443978371</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45783.54513888889</v>
+        <v>45785.54513888889</v>
       </c>
       <c r="B34" t="n">
-        <v>0.5295523597688708</v>
+        <v>0.5293149471409798</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45783.54861111111</v>
+        <v>45785.54861111111</v>
       </c>
       <c r="B35" t="n">
-        <v>0.5494027795348617</v>
+        <v>0.5491075733607118</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45783.55208333334</v>
+        <v>45785.55208333334</v>
       </c>
       <c r="B36" t="n">
-        <v>0.570931143115488</v>
+        <v>0.5706934972985998</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45783.55555555555</v>
+        <v>45785.55555555555</v>
       </c>
       <c r="B37" t="n">
-        <v>0.5937910649447129</v>
+        <v>0.5931401138147578</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45783.55902777778</v>
+        <v>45785.55902777778</v>
       </c>
       <c r="B38" t="n">
-        <v>0.6165627111480271</v>
+        <v>0.6157300390772882</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45783.5625</v>
+        <v>45785.5625</v>
       </c>
       <c r="B39" t="n">
-        <v>0.6387366960366822</v>
+        <v>0.6378314097499402</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45783.56597222222</v>
+        <v>45785.56597222222</v>
       </c>
       <c r="B40" t="n">
-        <v>0.661249716399368</v>
+        <v>0.6602726602467011</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45783.56944444445</v>
+        <v>45785.56944444445</v>
       </c>
       <c r="B41" t="n">
-        <v>0.6835906160647657</v>
+        <v>0.6827974516914428</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45783.57291666666</v>
+        <v>45785.57291666666</v>
       </c>
       <c r="B42" t="n">
-        <v>0.7069066462955342</v>
+        <v>0.7059592475232496</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>45783.57638888889</v>
+        <v>45785.57638888889</v>
       </c>
       <c r="B43" t="n">
-        <v>0.727680465047675</v>
+        <v>0.7265784670215074</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>45783.57986111111</v>
+        <v>45785.57986111111</v>
       </c>
       <c r="B44" t="n">
-        <v>0.7501943184942591</v>
+        <v>0.7490170380406582</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>45783.58333333334</v>
+        <v>45785.58333333334</v>
       </c>
       <c r="B45" t="n">
-        <v>0.7720723889065308</v>
+        <v>0.7713136563251427</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>45783.58680555555</v>
+        <v>45785.58680555555</v>
       </c>
       <c r="B46" t="n">
-        <v>0.7962162636041237</v>
+        <v>0.7961202444168476</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>45783.59027777778</v>
+        <v>45785.59027777778</v>
       </c>
       <c r="B47" t="n">
-        <v>0.8202471330913723</v>
+        <v>0.8204249891797251</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>45783.59375</v>
+        <v>45785.59375</v>
       </c>
       <c r="B48" t="n">
-        <v>0.845518238615772</v>
+        <v>0.8455421383400709</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>45783.59722222222</v>
+        <v>45785.59722222222</v>
       </c>
       <c r="B49" t="n">
-        <v>0.8733924347640994</v>
+        <v>0.8733570072484979</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>45783.60069444445</v>
+        <v>45785.60069444445</v>
       </c>
       <c r="B50" t="n">
-        <v>0.9034102844921829</v>
+        <v>0.9037553045706305</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>45783.60416666666</v>
+        <v>45785.60416666666</v>
       </c>
       <c r="B51" t="n">
-        <v>0.934314192428088</v>
+        <v>0.9347689877083782</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>45783.60763888889</v>
+        <v>45785.60763888889</v>
       </c>
       <c r="B52" t="n">
-        <v>0.9372631851391418</v>
+        <v>0.9377147464548174</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>45783.61111111111</v>
+        <v>45785.61111111111</v>
       </c>
       <c r="B53" t="n">
-        <v>0.9395129106506767</v>
+        <v>0.9400047401639366</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>45783.61458333334</v>
+        <v>45785.61458333334</v>
       </c>
       <c r="B54" t="n">
-        <v>0.9877369763197861</v>
+        <v>0.9882157395613993</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>45783.61805555555</v>
+        <v>45785.61805555555</v>
       </c>
       <c r="B55" t="n">
-        <v>0.9928681908948165</v>
+        <v>0.9931331633185496</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>45783.62152777778</v>
+        <v>45785.62152777778</v>
       </c>
       <c r="B56" t="n">
-        <v>0.9972338193612796</v>
+        <v>0.9973332952849573</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>45783.625</v>
+        <v>45785.625</v>
       </c>
       <c r="B57" t="n">
         <v>1</v>
